--- a/biology/Botanique/Abreuvoir_de_Marly/Abreuvoir_de_Marly.xlsx
+++ b/biology/Botanique/Abreuvoir_de_Marly/Abreuvoir_de_Marly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abreuvoir de Marly est un édifice situé dans et en contrebas du domaine national de Marly-le-Roi à Marly-le-Roi dans les Yvelines. 
-L'abreuvoir de Marly fut le seul élément du domaine classé au titre des monuments historiques en 1862[1]. Il fut un sujet de prédilection du peintre Alfred Sisley, dont les toiles figurant l'abreuvoir sont considérées comme une série de chefs-d'œuvre de l'impressionnisme[2].
+L'abreuvoir de Marly fut le seul élément du domaine classé au titre des monuments historiques en 1862. Il fut un sujet de prédilection du peintre Alfred Sisley, dont les toiles figurant l'abreuvoir sont considérées comme une série de chefs-d'œuvre de l'impressionnisme.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un premier abreuvoir est construit à cet emplacement en 1687 puis agrandi en 1698 pour donner sa forme actuelle. 
 En 1702, les sculptures de Mercure à Cheval sur Pégase et de La Renommée à Cheval sur Pégase d'Antoine Coysevox sont installés aux angles sud du bassin.
-En 1745, à la demande de Louis XV, Guillaume Coustou réalise les Chevaux de Marly[3], afin de remplacer le Mercure et la Renommée qui avaient été transférés aux Tuileries en 1719.
+En 1745, à la demande de Louis XV, Guillaume Coustou réalise les Chevaux de Marly, afin de remplacer le Mercure et la Renommée qui avaient été transférés aux Tuileries en 1719.
 La partie haute de l'abreuvoir a été partiellement restaurée en 2005, sans toutefois restituer les lames d'eau.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abreuvoir est composé de deux bassins :
 la partie haute avec trois jets,
